--- a/Code/Results/Cases/Case_0_70/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_70/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9967144421948329</v>
+        <v>1.026776104332363</v>
       </c>
       <c r="D2">
-        <v>1.004959371255191</v>
+        <v>1.028168502927843</v>
       </c>
       <c r="E2">
-        <v>1.009855581380722</v>
+        <v>1.035590835825034</v>
       </c>
       <c r="F2">
-        <v>1.01206812923422</v>
+        <v>1.043334832208573</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046066393998726</v>
+        <v>1.030869092779453</v>
       </c>
       <c r="J2">
-        <v>1.01899386979534</v>
+        <v>1.031937662606526</v>
       </c>
       <c r="K2">
-        <v>1.016350043860897</v>
+        <v>1.030986104273847</v>
       </c>
       <c r="L2">
-        <v>1.021179298855004</v>
+        <v>1.038387003017763</v>
       </c>
       <c r="M2">
-        <v>1.023361857649838</v>
+        <v>1.046108989219498</v>
       </c>
       <c r="N2">
-        <v>1.010361333691175</v>
+        <v>1.014683953469651</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.000968868246368</v>
+        <v>1.027662540191614</v>
       </c>
       <c r="D3">
-        <v>1.008377792676048</v>
+        <v>1.028925906230195</v>
       </c>
       <c r="E3">
-        <v>1.013520698986152</v>
+        <v>1.036412375578092</v>
       </c>
       <c r="F3">
-        <v>1.016390664063131</v>
+        <v>1.044319773191476</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047057555954753</v>
+        <v>1.030973917595845</v>
       </c>
       <c r="J3">
-        <v>1.021433155737955</v>
+        <v>1.032464326535692</v>
       </c>
       <c r="K3">
-        <v>1.018904588700441</v>
+        <v>1.031551522672326</v>
       </c>
       <c r="L3">
-        <v>1.023983454198331</v>
+        <v>1.03901793702601</v>
       </c>
       <c r="M3">
-        <v>1.026818032259799</v>
+        <v>1.046904489354026</v>
       </c>
       <c r="N3">
-        <v>1.011168291451981</v>
+        <v>1.014857866084385</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003664027509113</v>
+        <v>1.028236112692035</v>
       </c>
       <c r="D4">
-        <v>1.010548383483741</v>
+        <v>1.029416288544316</v>
       </c>
       <c r="E4">
-        <v>1.015848694905993</v>
+        <v>1.036944423163843</v>
       </c>
       <c r="F4">
-        <v>1.019137054553789</v>
+        <v>1.044957871108046</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047667774138084</v>
+        <v>1.03103951742363</v>
       </c>
       <c r="J4">
-        <v>1.02297446921526</v>
+        <v>1.032804479084241</v>
       </c>
       <c r="K4">
-        <v>1.020521144262563</v>
+        <v>1.031917017590167</v>
       </c>
       <c r="L4">
-        <v>1.025759530420203</v>
+        <v>1.039426001856217</v>
       </c>
       <c r="M4">
-        <v>1.029009870998729</v>
+        <v>1.047419391362872</v>
       </c>
       <c r="N4">
-        <v>1.011678175212969</v>
+        <v>1.014970176291242</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004783702393837</v>
+        <v>1.02847723873791</v>
       </c>
       <c r="D5">
-        <v>1.011451301002844</v>
+        <v>1.029622513552302</v>
       </c>
       <c r="E5">
-        <v>1.016817281678179</v>
+        <v>1.037168203734273</v>
       </c>
       <c r="F5">
-        <v>1.020279936419273</v>
+        <v>1.045226311604224</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047916975963165</v>
+        <v>1.03106656107481</v>
       </c>
       <c r="J5">
-        <v>1.02361380361709</v>
+        <v>1.032947326204013</v>
       </c>
       <c r="K5">
-        <v>1.021192271447711</v>
+        <v>1.032070582174762</v>
       </c>
       <c r="L5">
-        <v>1.026497266851708</v>
+        <v>1.039597505188587</v>
       </c>
       <c r="M5">
-        <v>1.029920987234201</v>
+        <v>1.047635893178529</v>
       </c>
       <c r="N5">
-        <v>1.011889670582181</v>
+        <v>1.015017337733346</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004970929454995</v>
+        <v>1.028517724600674</v>
       </c>
       <c r="D6">
-        <v>1.011602350459715</v>
+        <v>1.029657143597271</v>
       </c>
       <c r="E6">
-        <v>1.016979328550577</v>
+        <v>1.037205783752251</v>
       </c>
       <c r="F6">
-        <v>1.020471156680253</v>
+        <v>1.045271394699723</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047958391308092</v>
+        <v>1.031071070451358</v>
       </c>
       <c r="J6">
-        <v>1.023720651152412</v>
+        <v>1.032971301856974</v>
       </c>
       <c r="K6">
-        <v>1.021304466647799</v>
+        <v>1.032096361061044</v>
       </c>
       <c r="L6">
-        <v>1.0266206201413</v>
+        <v>1.039626298553353</v>
       </c>
       <c r="M6">
-        <v>1.03007337102905</v>
+        <v>1.047672246917082</v>
       </c>
       <c r="N6">
-        <v>1.011925016087381</v>
+        <v>1.015025253181992</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003679040611153</v>
+        <v>1.028239334646708</v>
       </c>
       <c r="D7">
-        <v>1.010560485638588</v>
+        <v>1.029419043866635</v>
       </c>
       <c r="E7">
-        <v>1.015861676479636</v>
+        <v>1.036947412909239</v>
       </c>
       <c r="F7">
-        <v>1.01915237124624</v>
+        <v>1.044961457301429</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047671132649162</v>
+        <v>1.031039880883689</v>
       </c>
       <c r="J7">
-        <v>1.0229830456475</v>
+        <v>1.032806388417171</v>
       </c>
       <c r="K7">
-        <v>1.020530144875473</v>
+        <v>1.031919069880823</v>
       </c>
       <c r="L7">
-        <v>1.025769422818867</v>
+        <v>1.039428293678865</v>
       </c>
       <c r="M7">
-        <v>1.029022085553625</v>
+        <v>1.047422284127007</v>
       </c>
       <c r="N7">
-        <v>1.01168101236047</v>
+        <v>1.014970806676534</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9981644804291782</v>
+        <v>1.027075680960212</v>
       </c>
       <c r="D8">
-        <v>1.00612339233578</v>
+        <v>1.02842440958092</v>
       </c>
       <c r="E8">
-        <v>1.011103452647648</v>
+        <v>1.035868383621116</v>
       </c>
       <c r="F8">
-        <v>1.013539674610176</v>
+        <v>1.043667536229189</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046407881070863</v>
+        <v>1.030904979757577</v>
       </c>
       <c r="J8">
-        <v>1.019826061518311</v>
+        <v>1.032115781764414</v>
       </c>
       <c r="K8">
-        <v>1.017221052356501</v>
+        <v>1.03117726564759</v>
       </c>
       <c r="L8">
-        <v>1.022135092140501</v>
+        <v>1.0386002690625</v>
       </c>
       <c r="M8">
-        <v>1.024539313331736</v>
+        <v>1.04637779822936</v>
       </c>
       <c r="N8">
-        <v>1.010636638122768</v>
+        <v>1.014742773955992</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9879833815888851</v>
+        <v>1.025025146851316</v>
       </c>
       <c r="D9">
-        <v>0.9979736051461059</v>
+        <v>1.026674039558495</v>
       </c>
       <c r="E9">
-        <v>1.002369409843164</v>
+        <v>1.033970557920569</v>
       </c>
       <c r="F9">
-        <v>1.003242665048329</v>
+        <v>1.041393483544877</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043937764393749</v>
+        <v>1.030650236956271</v>
       </c>
       <c r="J9">
-        <v>1.013967732367518</v>
+        <v>1.030894038607636</v>
       </c>
       <c r="K9">
-        <v>1.011099644972674</v>
+        <v>1.029867342990371</v>
       </c>
       <c r="L9">
-        <v>1.015424161641604</v>
+        <v>1.03713977024284</v>
       </c>
       <c r="M9">
-        <v>1.016283350444392</v>
+        <v>1.044538566887962</v>
       </c>
       <c r="N9">
-        <v>1.008698612626297</v>
+        <v>1.014339262093099</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9808521640269164</v>
+        <v>1.023658177755056</v>
       </c>
       <c r="D10">
-        <v>0.9922965884336127</v>
+        <v>1.025508765462042</v>
       </c>
       <c r="E10">
-        <v>0.9962885285829257</v>
+        <v>1.03270782339755</v>
       </c>
       <c r="F10">
-        <v>0.9960758297528653</v>
+        <v>1.039881568555668</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042118373733353</v>
+        <v>1.030469012166293</v>
       </c>
       <c r="J10">
-        <v>1.009846632647246</v>
+        <v>1.030076380106953</v>
       </c>
       <c r="K10">
-        <v>1.006806337400703</v>
+        <v>1.028992271578312</v>
       </c>
       <c r="L10">
-        <v>1.010725119703846</v>
+        <v>1.036165225916339</v>
       </c>
       <c r="M10">
-        <v>1.010516299625206</v>
+        <v>1.043313355827564</v>
       </c>
       <c r="N10">
-        <v>1.007335376388318</v>
+        <v>1.014069142382432</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9776749699173614</v>
+        <v>1.023066292441461</v>
       </c>
       <c r="D11">
-        <v>0.9897754293093761</v>
+        <v>1.025004596599121</v>
       </c>
       <c r="E11">
-        <v>0.993588603280027</v>
+        <v>1.032161652424824</v>
       </c>
       <c r="F11">
-        <v>0.9928939214137936</v>
+        <v>1.039227887387438</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041287531593403</v>
+        <v>1.030387847797206</v>
       </c>
       <c r="J11">
-        <v>1.008006919654264</v>
+        <v>1.029721588741837</v>
       </c>
       <c r="K11">
-        <v>1.00489277677531</v>
+        <v>1.028612946359686</v>
       </c>
       <c r="L11">
-        <v>1.008632450544328</v>
+        <v>1.03574304394319</v>
       </c>
       <c r="M11">
-        <v>1.007951103836659</v>
+        <v>1.042783065730629</v>
       </c>
       <c r="N11">
-        <v>1.006726851365535</v>
+        <v>1.013951918773756</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9764806851124946</v>
+        <v>1.022846444205076</v>
       </c>
       <c r="D12">
-        <v>0.9888290287193591</v>
+        <v>1.024817387798996</v>
       </c>
       <c r="E12">
-        <v>0.9925751723102901</v>
+        <v>1.031958871993114</v>
       </c>
       <c r="F12">
-        <v>0.9916995723912225</v>
+        <v>1.038985230896155</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040972262606213</v>
+        <v>1.030357296004732</v>
       </c>
       <c r="J12">
-        <v>1.007314890471758</v>
+        <v>1.029589693366515</v>
       </c>
       <c r="K12">
-        <v>1.004173422600493</v>
+        <v>1.028471987115173</v>
       </c>
       <c r="L12">
-        <v>1.007846016281883</v>
+        <v>1.03558619819226</v>
       </c>
       <c r="M12">
-        <v>1.006987542157881</v>
+        <v>1.04258612884434</v>
       </c>
       <c r="N12">
-        <v>1.006497955721265</v>
+        <v>1.013908338027328</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9767375148131646</v>
+        <v>1.022893602184549</v>
       </c>
       <c r="D13">
-        <v>0.9890324920733331</v>
+        <v>1.024857541894281</v>
       </c>
       <c r="E13">
-        <v>0.992793043099552</v>
+        <v>1.032002364907666</v>
       </c>
       <c r="F13">
-        <v>0.991956338204223</v>
+        <v>1.039037274736651</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0410401933563</v>
+        <v>1.030363867724315</v>
       </c>
       <c r="J13">
-        <v>1.007463732111179</v>
+        <v>1.029617990335558</v>
       </c>
       <c r="K13">
-        <v>1.004328120822948</v>
+        <v>1.02850222609207</v>
       </c>
       <c r="L13">
-        <v>1.008015128974004</v>
+        <v>1.035619843412548</v>
       </c>
       <c r="M13">
-        <v>1.007194723763414</v>
+        <v>1.042628370804687</v>
       </c>
       <c r="N13">
-        <v>1.006547186205153</v>
+        <v>1.013917687989565</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9775765425763751</v>
+        <v>1.023048119623023</v>
       </c>
       <c r="D14">
-        <v>0.9896974049270155</v>
+        <v>1.02498912058867</v>
       </c>
       <c r="E14">
-        <v>0.9935050512363469</v>
+        <v>1.032144888650428</v>
       </c>
       <c r="F14">
-        <v>0.9927954538774609</v>
+        <v>1.039207826262432</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041261608322744</v>
+        <v>1.030385330607714</v>
       </c>
       <c r="J14">
-        <v>1.007949895603514</v>
+        <v>1.029710688468005</v>
       </c>
       <c r="K14">
-        <v>1.00483349190005</v>
+        <v>1.028601295861636</v>
       </c>
       <c r="L14">
-        <v>1.008567632274705</v>
+        <v>1.035730079600615</v>
       </c>
       <c r="M14">
-        <v>1.007871677585519</v>
+        <v>1.042766786115027</v>
       </c>
       <c r="N14">
-        <v>1.006707989910833</v>
+        <v>1.013948317162497</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9780916003034189</v>
+        <v>1.023143323522779</v>
       </c>
       <c r="D15">
-        <v>0.9901057493373131</v>
+        <v>1.025070198820172</v>
       </c>
       <c r="E15">
-        <v>0.9939423279280318</v>
+        <v>1.032232714437417</v>
       </c>
       <c r="F15">
-        <v>0.9933107917445911</v>
+        <v>1.039312928577012</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041397141279091</v>
+        <v>1.030398501125004</v>
       </c>
       <c r="J15">
-        <v>1.008248275360766</v>
+        <v>1.02976778829451</v>
       </c>
       <c r="K15">
-        <v>1.00514371995503</v>
+        <v>1.028662327971934</v>
       </c>
       <c r="L15">
-        <v>1.008906825862288</v>
+        <v>1.035797996003211</v>
       </c>
       <c r="M15">
-        <v>1.008287332902587</v>
+        <v>1.042852073225647</v>
       </c>
       <c r="N15">
-        <v>1.006806683277688</v>
+        <v>1.013967183692897</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9810610821416578</v>
+        <v>1.023697459778919</v>
       </c>
       <c r="D16">
-        <v>0.992462543365995</v>
+        <v>1.025542234096935</v>
       </c>
       <c r="E16">
-        <v>0.9964662619707946</v>
+        <v>1.032744083759534</v>
       </c>
       <c r="F16">
-        <v>0.9962852928559188</v>
+        <v>1.039924972154514</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042172591240437</v>
+        <v>1.030474342114769</v>
       </c>
       <c r="J16">
-        <v>1.009967532669736</v>
+        <v>1.030099910946799</v>
       </c>
       <c r="K16">
-        <v>1.006932153368053</v>
+        <v>1.029017437530386</v>
       </c>
       <c r="L16">
-        <v>1.010862747298697</v>
+        <v>1.036193240673858</v>
       </c>
       <c r="M16">
-        <v>1.010685066937398</v>
+        <v>1.043348554480093</v>
       </c>
       <c r="N16">
-        <v>1.007375367711359</v>
+        <v>1.014076916682218</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9828993556182165</v>
+        <v>1.024045061313368</v>
       </c>
       <c r="D17">
-        <v>0.9939237168059055</v>
+        <v>1.025838438173849</v>
       </c>
       <c r="E17">
-        <v>0.9980312061348975</v>
+        <v>1.033065014251713</v>
       </c>
       <c r="F17">
-        <v>0.9981296347188789</v>
+        <v>1.040309156400789</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042647357805318</v>
+        <v>1.030521194808152</v>
       </c>
       <c r="J17">
-        <v>1.011030927028175</v>
+        <v>1.030308045406118</v>
       </c>
       <c r="K17">
-        <v>1.008039130727705</v>
+        <v>1.029240078482861</v>
       </c>
       <c r="L17">
-        <v>1.012073843724306</v>
+        <v>1.036441115062044</v>
       </c>
       <c r="M17">
-        <v>1.012170537881613</v>
+        <v>1.043660047691028</v>
       </c>
       <c r="N17">
-        <v>1.007727122355018</v>
+        <v>1.014145679950725</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9839630210664578</v>
+        <v>1.024247813390369</v>
       </c>
       <c r="D18">
-        <v>0.9947699517794406</v>
+        <v>1.026011247737463</v>
       </c>
       <c r="E18">
-        <v>0.9989375966108579</v>
+        <v>1.033252265509735</v>
       </c>
       <c r="F18">
-        <v>0.9991978673417785</v>
+        <v>1.04053333980819</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042920142612729</v>
+        <v>1.030548263316022</v>
       </c>
       <c r="J18">
-        <v>1.011645882971436</v>
+        <v>1.030429375258715</v>
       </c>
       <c r="K18">
-        <v>1.008679577507191</v>
+        <v>1.029369901207479</v>
       </c>
       <c r="L18">
-        <v>1.012774693754417</v>
+        <v>1.036585676832283</v>
       </c>
       <c r="M18">
-        <v>1.013030461019584</v>
+        <v>1.043841758941164</v>
       </c>
       <c r="N18">
-        <v>1.007930544221746</v>
+        <v>1.014185763290992</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9843242709964389</v>
+        <v>1.024316946911256</v>
       </c>
       <c r="D19">
-        <v>0.9950574848132193</v>
+        <v>1.026070177857817</v>
       </c>
       <c r="E19">
-        <v>0.9992455792779243</v>
+        <v>1.033316123132282</v>
       </c>
       <c r="F19">
-        <v>0.9995608465983155</v>
+        <v>1.040609796668866</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043012458829696</v>
+        <v>1.030557448872702</v>
       </c>
       <c r="J19">
-        <v>1.011854678449038</v>
+        <v>1.030470733449611</v>
       </c>
       <c r="K19">
-        <v>1.008897076592951</v>
+        <v>1.029414160585647</v>
       </c>
       <c r="L19">
-        <v>1.013012734297666</v>
+        <v>1.036634965373848</v>
       </c>
       <c r="M19">
-        <v>1.013322580552753</v>
+        <v>1.043903721564889</v>
       </c>
       <c r="N19">
-        <v>1.007999612472345</v>
+        <v>1.014199426403277</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9827030175322805</v>
+        <v>1.024007766745137</v>
       </c>
       <c r="D20">
-        <v>0.9937675750469351</v>
+        <v>1.025806654262087</v>
       </c>
       <c r="E20">
-        <v>0.9978639695681886</v>
+        <v>1.033030575444633</v>
       </c>
       <c r="F20">
-        <v>0.9979325387223044</v>
+        <v>1.040267927206386</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042596849254597</v>
+        <v>1.030516194831614</v>
       </c>
       <c r="J20">
-        <v>1.010917386140133</v>
+        <v>1.030285721931542</v>
       </c>
       <c r="K20">
-        <v>1.007920906616312</v>
+        <v>1.029216195342225</v>
       </c>
       <c r="L20">
-        <v>1.011944482771166</v>
+        <v>1.036414522460154</v>
       </c>
       <c r="M20">
-        <v>1.012011839623394</v>
+        <v>1.043626625077915</v>
       </c>
       <c r="N20">
-        <v>1.007689564351465</v>
+        <v>1.014138304897344</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9773298659367944</v>
+        <v>1.023002617960348</v>
       </c>
       <c r="D21">
-        <v>0.9895018826969548</v>
+        <v>1.024950372220252</v>
       </c>
       <c r="E21">
-        <v>0.9932956783435608</v>
+        <v>1.032102916415299</v>
       </c>
       <c r="F21">
-        <v>0.9925487041236647</v>
+        <v>1.039157598942838</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041196592514167</v>
+        <v>1.030379021461806</v>
       </c>
       <c r="J21">
-        <v>1.007806975282104</v>
+        <v>1.029683394208085</v>
       </c>
       <c r="K21">
-        <v>1.004684912539069</v>
+        <v>1.028572123957522</v>
       </c>
       <c r="L21">
-        <v>1.008405189173482</v>
+        <v>1.03569761857017</v>
       </c>
       <c r="M21">
-        <v>1.007672632161281</v>
+        <v>1.042726025239333</v>
       </c>
       <c r="N21">
-        <v>1.006660717270584</v>
+        <v>1.013939298699149</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9738693907630542</v>
+        <v>1.02237066658569</v>
       </c>
       <c r="D22">
-        <v>0.9867621664721178</v>
+        <v>1.024412352949612</v>
       </c>
       <c r="E22">
-        <v>0.9903620448156901</v>
+        <v>1.031520192112748</v>
       </c>
       <c r="F22">
-        <v>0.9890913155735006</v>
+        <v>1.038460358861571</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04027757390315</v>
+        <v>1.030290439658676</v>
       </c>
       <c r="J22">
-        <v>1.005800923260529</v>
+        <v>1.029304050591385</v>
       </c>
       <c r="K22">
-        <v>1.002600509258887</v>
+        <v>1.028166818535863</v>
       </c>
       <c r="L22">
-        <v>1.006126880252617</v>
+        <v>1.03524670792017</v>
       </c>
       <c r="M22">
-        <v>1.004882017988229</v>
+        <v>1.042159993979074</v>
       </c>
       <c r="N22">
-        <v>1.005997212560893</v>
+        <v>1.013813952007541</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9757118932058173</v>
+        <v>1.022705673171196</v>
       </c>
       <c r="D23">
-        <v>0.9882201765166485</v>
+        <v>1.02469753259767</v>
       </c>
       <c r="E23">
-        <v>0.9919232167122876</v>
+        <v>1.031829054411483</v>
       </c>
       <c r="F23">
-        <v>0.9909312245829142</v>
+        <v>1.038829896350374</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040768491570728</v>
+        <v>1.030337619646361</v>
       </c>
       <c r="J23">
-        <v>1.006869280744954</v>
+        <v>1.029505207770061</v>
       </c>
       <c r="K23">
-        <v>1.003710345535807</v>
+        <v>1.028381711606214</v>
       </c>
       <c r="L23">
-        <v>1.007339826756302</v>
+        <v>1.035485759416504</v>
       </c>
       <c r="M23">
-        <v>1.006367469197358</v>
+        <v>1.042460037384964</v>
       </c>
       <c r="N23">
-        <v>1.006350568293446</v>
+        <v>1.013880421727869</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9827917606889376</v>
+        <v>1.024024618549133</v>
       </c>
       <c r="D24">
-        <v>0.9938381474269227</v>
+        <v>1.025821015924145</v>
       </c>
       <c r="E24">
-        <v>0.9979395563612148</v>
+        <v>1.033046136680285</v>
       </c>
       <c r="F24">
-        <v>0.9980216211765702</v>
+        <v>1.040286556610491</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042619684669698</v>
+        <v>1.030518454908829</v>
       </c>
       <c r="J24">
-        <v>1.010968706743677</v>
+        <v>1.030295809169676</v>
       </c>
       <c r="K24">
-        <v>1.007974343151638</v>
+        <v>1.029226987229062</v>
       </c>
       <c r="L24">
-        <v>1.012002952575721</v>
+        <v>1.036426538571602</v>
       </c>
       <c r="M24">
-        <v>1.012083568668137</v>
+        <v>1.043641727248607</v>
       </c>
       <c r="N24">
-        <v>1.007706540597781</v>
+        <v>1.014141637444132</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9906735660847648</v>
+        <v>1.02555525487941</v>
       </c>
       <c r="D25">
-        <v>1.00012185944723</v>
+        <v>1.027126269869887</v>
       </c>
       <c r="E25">
-        <v>1.00467108515674</v>
+        <v>1.034460760183412</v>
       </c>
       <c r="F25">
-        <v>1.005955733618221</v>
+        <v>1.041980660673722</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04460611805302</v>
+        <v>1.030718106631404</v>
       </c>
       <c r="J25">
-        <v>1.015518930731496</v>
+        <v>1.031210450974132</v>
       </c>
       <c r="K25">
-        <v>1.012718283999209</v>
+        <v>1.030206310070455</v>
       </c>
       <c r="L25">
-        <v>1.017197318742224</v>
+        <v>1.037517504273741</v>
       </c>
       <c r="M25">
-        <v>1.018462292712715</v>
+        <v>1.045013891748725</v>
       </c>
       <c r="N25">
-        <v>1.009211764695582</v>
+        <v>1.014443777279167</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_70/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_70/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.026776104332363</v>
+        <v>0.996714442194833</v>
       </c>
       <c r="D2">
-        <v>1.028168502927843</v>
+        <v>1.004959371255191</v>
       </c>
       <c r="E2">
-        <v>1.035590835825034</v>
+        <v>1.009855581380722</v>
       </c>
       <c r="F2">
-        <v>1.043334832208573</v>
+        <v>1.01206812923422</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030869092779453</v>
+        <v>1.046066393998726</v>
       </c>
       <c r="J2">
-        <v>1.031937662606526</v>
+        <v>1.01899386979534</v>
       </c>
       <c r="K2">
-        <v>1.030986104273847</v>
+        <v>1.016350043860897</v>
       </c>
       <c r="L2">
-        <v>1.038387003017763</v>
+        <v>1.021179298855004</v>
       </c>
       <c r="M2">
-        <v>1.046108989219498</v>
+        <v>1.023361857649838</v>
       </c>
       <c r="N2">
-        <v>1.014683953469651</v>
+        <v>1.010361333691175</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027662540191614</v>
+        <v>1.000968868246367</v>
       </c>
       <c r="D3">
-        <v>1.028925906230195</v>
+        <v>1.008377792676047</v>
       </c>
       <c r="E3">
-        <v>1.036412375578092</v>
+        <v>1.01352069898615</v>
       </c>
       <c r="F3">
-        <v>1.044319773191476</v>
+        <v>1.016390664063129</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030973917595845</v>
+        <v>1.047057555954753</v>
       </c>
       <c r="J3">
-        <v>1.032464326535692</v>
+        <v>1.021433155737954</v>
       </c>
       <c r="K3">
-        <v>1.031551522672326</v>
+        <v>1.01890458870044</v>
       </c>
       <c r="L3">
-        <v>1.03901793702601</v>
+        <v>1.023983454198329</v>
       </c>
       <c r="M3">
-        <v>1.046904489354026</v>
+        <v>1.026818032259798</v>
       </c>
       <c r="N3">
-        <v>1.014857866084385</v>
+        <v>1.011168291451981</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028236112692035</v>
+        <v>1.003664027509112</v>
       </c>
       <c r="D4">
-        <v>1.029416288544316</v>
+        <v>1.01054838348374</v>
       </c>
       <c r="E4">
-        <v>1.036944423163843</v>
+        <v>1.015848694905992</v>
       </c>
       <c r="F4">
-        <v>1.044957871108046</v>
+        <v>1.019137054553788</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03103951742363</v>
+        <v>1.047667774138083</v>
       </c>
       <c r="J4">
-        <v>1.032804479084241</v>
+        <v>1.022974469215259</v>
       </c>
       <c r="K4">
-        <v>1.031917017590167</v>
+        <v>1.020521144262563</v>
       </c>
       <c r="L4">
-        <v>1.039426001856217</v>
+        <v>1.025759530420202</v>
       </c>
       <c r="M4">
-        <v>1.047419391362872</v>
+        <v>1.029009870998727</v>
       </c>
       <c r="N4">
-        <v>1.014970176291242</v>
+        <v>1.011678175212968</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02847723873791</v>
+        <v>1.004783702393837</v>
       </c>
       <c r="D5">
-        <v>1.029622513552302</v>
+        <v>1.011451301002844</v>
       </c>
       <c r="E5">
-        <v>1.037168203734273</v>
+        <v>1.016817281678179</v>
       </c>
       <c r="F5">
-        <v>1.045226311604224</v>
+        <v>1.020279936419273</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03106656107481</v>
+        <v>1.047916975963165</v>
       </c>
       <c r="J5">
-        <v>1.032947326204013</v>
+        <v>1.02361380361709</v>
       </c>
       <c r="K5">
-        <v>1.032070582174762</v>
+        <v>1.021192271447711</v>
       </c>
       <c r="L5">
-        <v>1.039597505188587</v>
+        <v>1.026497266851709</v>
       </c>
       <c r="M5">
-        <v>1.047635893178529</v>
+        <v>1.029920987234201</v>
       </c>
       <c r="N5">
-        <v>1.015017337733346</v>
+        <v>1.011889670582182</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028517724600674</v>
+        <v>1.004970929454995</v>
       </c>
       <c r="D6">
-        <v>1.029657143597271</v>
+        <v>1.011602350459716</v>
       </c>
       <c r="E6">
-        <v>1.037205783752251</v>
+        <v>1.016979328550578</v>
       </c>
       <c r="F6">
-        <v>1.045271394699723</v>
+        <v>1.020471156680253</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031071070451358</v>
+        <v>1.047958391308092</v>
       </c>
       <c r="J6">
-        <v>1.032971301856974</v>
+        <v>1.023720651152412</v>
       </c>
       <c r="K6">
-        <v>1.032096361061044</v>
+        <v>1.0213044666478</v>
       </c>
       <c r="L6">
-        <v>1.039626298553353</v>
+        <v>1.0266206201413</v>
       </c>
       <c r="M6">
-        <v>1.047672246917082</v>
+        <v>1.03007337102905</v>
       </c>
       <c r="N6">
-        <v>1.015025253181992</v>
+        <v>1.011925016087381</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028239334646708</v>
+        <v>1.003679040611153</v>
       </c>
       <c r="D7">
-        <v>1.029419043866635</v>
+        <v>1.010560485638589</v>
       </c>
       <c r="E7">
-        <v>1.036947412909239</v>
+        <v>1.015861676479636</v>
       </c>
       <c r="F7">
-        <v>1.044961457301429</v>
+        <v>1.01915237124624</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031039880883689</v>
+        <v>1.047671132649162</v>
       </c>
       <c r="J7">
-        <v>1.032806388417171</v>
+        <v>1.0229830456475</v>
       </c>
       <c r="K7">
-        <v>1.031919069880823</v>
+        <v>1.020530144875473</v>
       </c>
       <c r="L7">
-        <v>1.039428293678865</v>
+        <v>1.025769422818867</v>
       </c>
       <c r="M7">
-        <v>1.047422284127007</v>
+        <v>1.029022085553626</v>
       </c>
       <c r="N7">
-        <v>1.014970806676534</v>
+        <v>1.01168101236047</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027075680960212</v>
+        <v>0.9981644804291772</v>
       </c>
       <c r="D8">
-        <v>1.02842440958092</v>
+        <v>1.00612339233578</v>
       </c>
       <c r="E8">
-        <v>1.035868383621116</v>
+        <v>1.011103452647647</v>
       </c>
       <c r="F8">
-        <v>1.043667536229189</v>
+        <v>1.013539674610175</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030904979757577</v>
+        <v>1.046407881070863</v>
       </c>
       <c r="J8">
-        <v>1.032115781764414</v>
+        <v>1.01982606151831</v>
       </c>
       <c r="K8">
-        <v>1.03117726564759</v>
+        <v>1.0172210523565</v>
       </c>
       <c r="L8">
-        <v>1.0386002690625</v>
+        <v>1.0221350921405</v>
       </c>
       <c r="M8">
-        <v>1.04637779822936</v>
+        <v>1.024539313331735</v>
       </c>
       <c r="N8">
-        <v>1.014742773955992</v>
+        <v>1.010636638122767</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025025146851316</v>
+        <v>0.9879833815888851</v>
       </c>
       <c r="D9">
-        <v>1.026674039558495</v>
+        <v>0.9979736051461057</v>
       </c>
       <c r="E9">
-        <v>1.033970557920569</v>
+        <v>1.002369409843164</v>
       </c>
       <c r="F9">
-        <v>1.041393483544877</v>
+        <v>1.003242665048329</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030650236956271</v>
+        <v>1.043937764393749</v>
       </c>
       <c r="J9">
-        <v>1.030894038607636</v>
+        <v>1.013967732367517</v>
       </c>
       <c r="K9">
-        <v>1.029867342990371</v>
+        <v>1.011099644972674</v>
       </c>
       <c r="L9">
-        <v>1.03713977024284</v>
+        <v>1.015424161641604</v>
       </c>
       <c r="M9">
-        <v>1.044538566887962</v>
+        <v>1.016283350444392</v>
       </c>
       <c r="N9">
-        <v>1.014339262093099</v>
+        <v>1.008698612626297</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023658177755056</v>
+        <v>0.980852164026917</v>
       </c>
       <c r="D10">
-        <v>1.025508765462042</v>
+        <v>0.9922965884336133</v>
       </c>
       <c r="E10">
-        <v>1.03270782339755</v>
+        <v>0.9962885285829264</v>
       </c>
       <c r="F10">
-        <v>1.039881568555668</v>
+        <v>0.9960758297528658</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030469012166293</v>
+        <v>1.042118373733353</v>
       </c>
       <c r="J10">
-        <v>1.030076380106953</v>
+        <v>1.009846632647246</v>
       </c>
       <c r="K10">
-        <v>1.028992271578312</v>
+        <v>1.006806337400703</v>
       </c>
       <c r="L10">
-        <v>1.036165225916339</v>
+        <v>1.010725119703847</v>
       </c>
       <c r="M10">
-        <v>1.043313355827564</v>
+        <v>1.010516299625207</v>
       </c>
       <c r="N10">
-        <v>1.014069142382432</v>
+        <v>1.007335376388318</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023066292441461</v>
+        <v>0.9776749699173607</v>
       </c>
       <c r="D11">
-        <v>1.025004596599121</v>
+        <v>0.9897754293093755</v>
       </c>
       <c r="E11">
-        <v>1.032161652424824</v>
+        <v>0.9935886032800262</v>
       </c>
       <c r="F11">
-        <v>1.039227887387438</v>
+        <v>0.992893921413793</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030387847797206</v>
+        <v>1.041287531593403</v>
       </c>
       <c r="J11">
-        <v>1.029721588741837</v>
+        <v>1.008006919654263</v>
       </c>
       <c r="K11">
-        <v>1.028612946359686</v>
+        <v>1.00489277677531</v>
       </c>
       <c r="L11">
-        <v>1.03574304394319</v>
+        <v>1.008632450544327</v>
       </c>
       <c r="M11">
-        <v>1.042783065730629</v>
+        <v>1.007951103836658</v>
       </c>
       <c r="N11">
-        <v>1.013951918773756</v>
+        <v>1.006726851365535</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022846444205076</v>
+        <v>0.9764806851124944</v>
       </c>
       <c r="D12">
-        <v>1.024817387798996</v>
+        <v>0.9888290287193587</v>
       </c>
       <c r="E12">
-        <v>1.031958871993114</v>
+        <v>0.9925751723102897</v>
       </c>
       <c r="F12">
-        <v>1.038985230896155</v>
+        <v>0.9916995723912219</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030357296004732</v>
+        <v>1.040972262606213</v>
       </c>
       <c r="J12">
-        <v>1.029589693366515</v>
+        <v>1.007314890471758</v>
       </c>
       <c r="K12">
-        <v>1.028471987115173</v>
+        <v>1.004173422600493</v>
       </c>
       <c r="L12">
-        <v>1.03558619819226</v>
+        <v>1.007846016281882</v>
       </c>
       <c r="M12">
-        <v>1.04258612884434</v>
+        <v>1.00698754215788</v>
       </c>
       <c r="N12">
-        <v>1.013908338027328</v>
+        <v>1.006497955721265</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022893602184549</v>
+        <v>0.9767375148131642</v>
       </c>
       <c r="D13">
-        <v>1.024857541894281</v>
+        <v>0.9890324920733328</v>
       </c>
       <c r="E13">
-        <v>1.032002364907666</v>
+        <v>0.9927930430995515</v>
       </c>
       <c r="F13">
-        <v>1.039037274736651</v>
+        <v>0.9919563382042225</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030363867724315</v>
+        <v>1.0410401933563</v>
       </c>
       <c r="J13">
-        <v>1.029617990335558</v>
+        <v>1.007463732111178</v>
       </c>
       <c r="K13">
-        <v>1.02850222609207</v>
+        <v>1.004328120822948</v>
       </c>
       <c r="L13">
-        <v>1.035619843412548</v>
+        <v>1.008015128974004</v>
       </c>
       <c r="M13">
-        <v>1.042628370804687</v>
+        <v>1.007194723763413</v>
       </c>
       <c r="N13">
-        <v>1.013917687989565</v>
+        <v>1.006547186205153</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023048119623023</v>
+        <v>0.9775765425763744</v>
       </c>
       <c r="D14">
-        <v>1.02498912058867</v>
+        <v>0.9896974049270147</v>
       </c>
       <c r="E14">
-        <v>1.032144888650428</v>
+        <v>0.9935050512363461</v>
       </c>
       <c r="F14">
-        <v>1.039207826262432</v>
+        <v>0.9927954538774599</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030385330607714</v>
+        <v>1.041261608322744</v>
       </c>
       <c r="J14">
-        <v>1.029710688468005</v>
+        <v>1.007949895603513</v>
       </c>
       <c r="K14">
-        <v>1.028601295861636</v>
+        <v>1.004833491900049</v>
       </c>
       <c r="L14">
-        <v>1.035730079600615</v>
+        <v>1.008567632274704</v>
       </c>
       <c r="M14">
-        <v>1.042766786115027</v>
+        <v>1.007871677585518</v>
       </c>
       <c r="N14">
-        <v>1.013948317162497</v>
+        <v>1.006707989910833</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023143323522779</v>
+        <v>0.9780916003034187</v>
       </c>
       <c r="D15">
-        <v>1.025070198820172</v>
+        <v>0.9901057493373127</v>
       </c>
       <c r="E15">
-        <v>1.032232714437417</v>
+        <v>0.9939423279280312</v>
       </c>
       <c r="F15">
-        <v>1.039312928577012</v>
+        <v>0.9933107917445907</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030398501125004</v>
+        <v>1.041397141279091</v>
       </c>
       <c r="J15">
-        <v>1.02976778829451</v>
+        <v>1.008248275360765</v>
       </c>
       <c r="K15">
-        <v>1.028662327971934</v>
+        <v>1.00514371995503</v>
       </c>
       <c r="L15">
-        <v>1.035797996003211</v>
+        <v>1.008906825862287</v>
       </c>
       <c r="M15">
-        <v>1.042852073225647</v>
+        <v>1.008287332902586</v>
       </c>
       <c r="N15">
-        <v>1.013967183692897</v>
+        <v>1.006806683277688</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023697459778919</v>
+        <v>0.9810610821416577</v>
       </c>
       <c r="D16">
-        <v>1.025542234096935</v>
+        <v>0.992462543365995</v>
       </c>
       <c r="E16">
-        <v>1.032744083759534</v>
+        <v>0.9964662619707945</v>
       </c>
       <c r="F16">
-        <v>1.039924972154514</v>
+        <v>0.9962852928559187</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030474342114769</v>
+        <v>1.042172591240437</v>
       </c>
       <c r="J16">
-        <v>1.030099910946799</v>
+        <v>1.009967532669736</v>
       </c>
       <c r="K16">
-        <v>1.029017437530386</v>
+        <v>1.006932153368053</v>
       </c>
       <c r="L16">
-        <v>1.036193240673858</v>
+        <v>1.010862747298697</v>
       </c>
       <c r="M16">
-        <v>1.043348554480093</v>
+        <v>1.010685066937398</v>
       </c>
       <c r="N16">
-        <v>1.014076916682218</v>
+        <v>1.007375367711359</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024045061313368</v>
+        <v>0.982899355618216</v>
       </c>
       <c r="D17">
-        <v>1.025838438173849</v>
+        <v>0.9939237168059052</v>
       </c>
       <c r="E17">
-        <v>1.033065014251713</v>
+        <v>0.9980312061348968</v>
       </c>
       <c r="F17">
-        <v>1.040309156400789</v>
+        <v>0.9981296347188778</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030521194808152</v>
+        <v>1.042647357805318</v>
       </c>
       <c r="J17">
-        <v>1.030308045406118</v>
+        <v>1.011030927028175</v>
       </c>
       <c r="K17">
-        <v>1.029240078482861</v>
+        <v>1.008039130727705</v>
       </c>
       <c r="L17">
-        <v>1.036441115062044</v>
+        <v>1.012073843724306</v>
       </c>
       <c r="M17">
-        <v>1.043660047691028</v>
+        <v>1.012170537881611</v>
       </c>
       <c r="N17">
-        <v>1.014145679950725</v>
+        <v>1.007727122355018</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024247813390369</v>
+        <v>0.9839630210664579</v>
       </c>
       <c r="D18">
-        <v>1.026011247737463</v>
+        <v>0.9947699517794406</v>
       </c>
       <c r="E18">
-        <v>1.033252265509735</v>
+        <v>0.998937596610858</v>
       </c>
       <c r="F18">
-        <v>1.04053333980819</v>
+        <v>0.9991978673417788</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030548263316022</v>
+        <v>1.042920142612729</v>
       </c>
       <c r="J18">
-        <v>1.030429375258715</v>
+        <v>1.011645882971436</v>
       </c>
       <c r="K18">
-        <v>1.029369901207479</v>
+        <v>1.008679577507191</v>
       </c>
       <c r="L18">
-        <v>1.036585676832283</v>
+        <v>1.012774693754417</v>
       </c>
       <c r="M18">
-        <v>1.043841758941164</v>
+        <v>1.013030461019584</v>
       </c>
       <c r="N18">
-        <v>1.014185763290992</v>
+        <v>1.007930544221746</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024316946911256</v>
+        <v>0.9843242709964385</v>
       </c>
       <c r="D19">
-        <v>1.026070177857817</v>
+        <v>0.9950574848132191</v>
       </c>
       <c r="E19">
-        <v>1.033316123132282</v>
+        <v>0.9992455792779239</v>
       </c>
       <c r="F19">
-        <v>1.040609796668866</v>
+        <v>0.9995608465983148</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030557448872702</v>
+        <v>1.043012458829696</v>
       </c>
       <c r="J19">
-        <v>1.030470733449611</v>
+        <v>1.011854678449038</v>
       </c>
       <c r="K19">
-        <v>1.029414160585647</v>
+        <v>1.008897076592951</v>
       </c>
       <c r="L19">
-        <v>1.036634965373848</v>
+        <v>1.013012734297665</v>
       </c>
       <c r="M19">
-        <v>1.043903721564889</v>
+        <v>1.013322580552752</v>
       </c>
       <c r="N19">
-        <v>1.014199426403277</v>
+        <v>1.007999612472345</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024007766745137</v>
+        <v>0.9827030175322804</v>
       </c>
       <c r="D20">
-        <v>1.025806654262087</v>
+        <v>0.993767575046935</v>
       </c>
       <c r="E20">
-        <v>1.033030575444633</v>
+        <v>0.9978639695681883</v>
       </c>
       <c r="F20">
-        <v>1.040267927206386</v>
+        <v>0.9979325387223041</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030516194831614</v>
+        <v>1.042596849254597</v>
       </c>
       <c r="J20">
-        <v>1.030285721931542</v>
+        <v>1.010917386140133</v>
       </c>
       <c r="K20">
-        <v>1.029216195342225</v>
+        <v>1.007920906616312</v>
       </c>
       <c r="L20">
-        <v>1.036414522460154</v>
+        <v>1.011944482771166</v>
       </c>
       <c r="M20">
-        <v>1.043626625077915</v>
+        <v>1.012011839623394</v>
       </c>
       <c r="N20">
-        <v>1.014138304897344</v>
+        <v>1.007689564351465</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023002617960348</v>
+        <v>0.9773298659367945</v>
       </c>
       <c r="D21">
-        <v>1.024950372220252</v>
+        <v>0.9895018826969548</v>
       </c>
       <c r="E21">
-        <v>1.032102916415299</v>
+        <v>0.9932956783435607</v>
       </c>
       <c r="F21">
-        <v>1.039157598942838</v>
+        <v>0.9925487041236645</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030379021461806</v>
+        <v>1.041196592514167</v>
       </c>
       <c r="J21">
-        <v>1.029683394208085</v>
+        <v>1.007806975282104</v>
       </c>
       <c r="K21">
-        <v>1.028572123957522</v>
+        <v>1.004684912539069</v>
       </c>
       <c r="L21">
-        <v>1.03569761857017</v>
+        <v>1.008405189173482</v>
       </c>
       <c r="M21">
-        <v>1.042726025239333</v>
+        <v>1.007672632161281</v>
       </c>
       <c r="N21">
-        <v>1.013939298699149</v>
+        <v>1.006660717270584</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02237066658569</v>
+        <v>0.9738693907630537</v>
       </c>
       <c r="D22">
-        <v>1.024412352949612</v>
+        <v>0.9867621664721173</v>
       </c>
       <c r="E22">
-        <v>1.031520192112748</v>
+        <v>0.9903620448156896</v>
       </c>
       <c r="F22">
-        <v>1.038460358861571</v>
+        <v>0.9890913155735002</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030290439658676</v>
+        <v>1.040277573903149</v>
       </c>
       <c r="J22">
-        <v>1.029304050591385</v>
+        <v>1.005800923260529</v>
       </c>
       <c r="K22">
-        <v>1.028166818535863</v>
+        <v>1.002600509258887</v>
       </c>
       <c r="L22">
-        <v>1.03524670792017</v>
+        <v>1.006126880252616</v>
       </c>
       <c r="M22">
-        <v>1.042159993979074</v>
+        <v>1.004882017988229</v>
       </c>
       <c r="N22">
-        <v>1.013813952007541</v>
+        <v>1.005997212560893</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022705673171196</v>
+        <v>0.9757118932058172</v>
       </c>
       <c r="D23">
-        <v>1.02469753259767</v>
+        <v>0.9882201765166484</v>
       </c>
       <c r="E23">
-        <v>1.031829054411483</v>
+        <v>0.9919232167122872</v>
       </c>
       <c r="F23">
-        <v>1.038829896350374</v>
+        <v>0.990931224582914</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030337619646361</v>
+        <v>1.040768491570728</v>
       </c>
       <c r="J23">
-        <v>1.029505207770061</v>
+        <v>1.006869280744954</v>
       </c>
       <c r="K23">
-        <v>1.028381711606214</v>
+        <v>1.003710345535807</v>
       </c>
       <c r="L23">
-        <v>1.035485759416504</v>
+        <v>1.007339826756301</v>
       </c>
       <c r="M23">
-        <v>1.042460037384964</v>
+        <v>1.006367469197358</v>
       </c>
       <c r="N23">
-        <v>1.013880421727869</v>
+        <v>1.006350568293446</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024024618549133</v>
+        <v>0.9827917606889378</v>
       </c>
       <c r="D24">
-        <v>1.025821015924145</v>
+        <v>0.9938381474269228</v>
       </c>
       <c r="E24">
-        <v>1.033046136680285</v>
+        <v>0.997939556361215</v>
       </c>
       <c r="F24">
-        <v>1.040286556610491</v>
+        <v>0.9980216211765706</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030518454908829</v>
+        <v>1.042619684669699</v>
       </c>
       <c r="J24">
-        <v>1.030295809169676</v>
+        <v>1.010968706743677</v>
       </c>
       <c r="K24">
-        <v>1.029226987229062</v>
+        <v>1.007974343151639</v>
       </c>
       <c r="L24">
-        <v>1.036426538571602</v>
+        <v>1.012002952575721</v>
       </c>
       <c r="M24">
-        <v>1.043641727248607</v>
+        <v>1.012083568668137</v>
       </c>
       <c r="N24">
-        <v>1.014141637444132</v>
+        <v>1.007706540597781</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02555525487941</v>
+        <v>0.9906735660847648</v>
       </c>
       <c r="D25">
-        <v>1.027126269869887</v>
+        <v>1.00012185944723</v>
       </c>
       <c r="E25">
-        <v>1.034460760183412</v>
+        <v>1.00467108515674</v>
       </c>
       <c r="F25">
-        <v>1.041980660673722</v>
+        <v>1.005955733618221</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030718106631404</v>
+        <v>1.04460611805302</v>
       </c>
       <c r="J25">
-        <v>1.031210450974132</v>
+        <v>1.015518930731496</v>
       </c>
       <c r="K25">
-        <v>1.030206310070455</v>
+        <v>1.012718283999209</v>
       </c>
       <c r="L25">
-        <v>1.037517504273741</v>
+        <v>1.017197318742224</v>
       </c>
       <c r="M25">
-        <v>1.045013891748725</v>
+        <v>1.018462292712716</v>
       </c>
       <c r="N25">
-        <v>1.014443777279167</v>
+        <v>1.009211764695582</v>
       </c>
     </row>
   </sheetData>
